--- a/2019_dkp/before_2019_11_26_dkp.xlsx
+++ b/2019_dkp/before_2019_11_26_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C11463-C97A-479A-B752-A4C93965F501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AF2823-A6B2-48F1-AC66-D4716CF6241D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
